--- a/Data/EC/NIT-9005879355.xlsx
+++ b/Data/EC/NIT-9005879355.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0526F40-A4DD-4E91-8860-34F35C6B6C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6F050E-61B0-4991-9853-E24310741CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{503CE82F-D06D-4DF0-B33F-00C9464652F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C3526D60-BF24-49AD-B955-446E97AEA4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,133 +65,133 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128046581</t>
+  </si>
+  <si>
+    <t>DIANA CAROLINA DE AVILA TORDECILLA</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
     <t>45514830</t>
   </si>
   <si>
     <t>KATIA DEL PILAR TOVAR TINOCO</t>
   </si>
   <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
     <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1128046581</t>
-  </si>
-  <si>
-    <t>DIANA CAROLINA DE AVILA TORDECILLA</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -605,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B44986-8206-DF66-E123-62DC3CB055C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A639615D-E904-09EE-EC7E-A491F9BFE5FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B128B80-B51C-4CAD-BB78-725115F847BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBB63A8-6C60-4DF0-AAB0-F22A69DC66CD}">
   <dimension ref="B2:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1134,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>120000</v>
+        <v>87436</v>
       </c>
       <c r="G16" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,10 +1157,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G17" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1180,10 +1180,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G18" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1203,10 +1203,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G19" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1226,10 +1226,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G20" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1249,10 +1249,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G21" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1272,10 +1272,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G22" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1295,10 +1295,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G23" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1318,10 +1318,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G24" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1341,10 +1341,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G25" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1364,10 +1364,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G26" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1387,10 +1387,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G27" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1410,10 +1410,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G28" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1433,10 +1433,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G29" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1456,10 +1456,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G30" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1479,10 +1479,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G31" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1502,10 +1502,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G32" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1528,7 +1528,7 @@
         <v>120000</v>
       </c>
       <c r="G33" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1551,7 +1551,7 @@
         <v>120000</v>
       </c>
       <c r="G34" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1562,16 +1562,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18">
-        <v>120000</v>
+        <v>84000</v>
       </c>
       <c r="G35" s="18">
         <v>3000000</v>
@@ -1585,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F36" s="18">
         <v>120000</v>
       </c>
       <c r="G36" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1608,13 +1608,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F37" s="18">
         <v>120000</v>
@@ -1631,19 +1631,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F38" s="18">
         <v>120000</v>
       </c>
       <c r="G38" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1654,13 +1654,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F39" s="18">
         <v>120000</v>
@@ -1677,13 +1677,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F40" s="18">
         <v>120000</v>
@@ -1700,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F41" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G41" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1723,13 +1723,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F42" s="18">
         <v>120000</v>
@@ -1746,19 +1746,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F43" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G43" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1769,19 +1769,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F44" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G44" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1792,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F45" s="18">
         <v>120000</v>
@@ -1815,19 +1815,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F46" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G46" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1838,13 +1838,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F47" s="18">
         <v>120000</v>
@@ -1861,13 +1861,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F48" s="18">
         <v>120000</v>
@@ -1884,19 +1884,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F49" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G49" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1907,19 +1907,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G50" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1930,13 +1930,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F51" s="18">
         <v>120000</v>
@@ -1953,13 +1953,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F52" s="18">
         <v>120000</v>
@@ -1976,19 +1976,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F53" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G53" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1999,19 +1999,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F54" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G54" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2022,13 +2022,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
         <v>120000</v>
@@ -2045,13 +2045,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
         <v>120000</v>
@@ -2068,19 +2068,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F57" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G57" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2091,19 +2091,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F58" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G58" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2114,13 +2114,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F59" s="18">
         <v>120000</v>
@@ -2137,19 +2137,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F60" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G60" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2160,13 +2160,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F61" s="18">
         <v>120000</v>
@@ -2183,13 +2183,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F62" s="18">
         <v>120000</v>
@@ -2206,19 +2206,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F63" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G63" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2229,19 +2229,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F64" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G64" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2252,13 +2252,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F65" s="18">
         <v>120000</v>
@@ -2275,13 +2275,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F66" s="18">
         <v>120000</v>
@@ -2298,19 +2298,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F67" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G67" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2321,19 +2321,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F68" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G68" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2344,13 +2344,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F69" s="18">
         <v>120000</v>
@@ -2367,19 +2367,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F70" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G70" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2390,13 +2390,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F71" s="18">
         <v>120000</v>
@@ -2413,16 +2413,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F72" s="18">
-        <v>84000</v>
+        <v>120000</v>
       </c>
       <c r="G72" s="18">
         <v>3000000</v>
@@ -2436,19 +2436,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E73" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F73" s="24">
-        <v>87436</v>
+        <v>120000</v>
       </c>
       <c r="G73" s="24">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>

--- a/Data/EC/NIT-9005879355.xlsx
+++ b/Data/EC/NIT-9005879355.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6F050E-61B0-4991-9853-E24310741CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF5450E-743C-4A1D-867B-C9A56136307A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C3526D60-BF24-49AD-B955-446E97AEA4CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D0F7479-9EF5-41A4-B3B0-39D9A113856C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,133 +65,133 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45514830</t>
+  </si>
+  <si>
+    <t>KATIA DEL PILAR TOVAR TINOCO</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
     <t>1128046581</t>
   </si>
   <si>
     <t>DIANA CAROLINA DE AVILA TORDECILLA</t>
   </si>
   <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>45514830</t>
-  </si>
-  <si>
-    <t>KATIA DEL PILAR TOVAR TINOCO</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -290,7 +290,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -303,9 +305,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -505,23 +505,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,10 +549,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A639615D-E904-09EE-EC7E-A491F9BFE5FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9366BB5A-54A9-2A3B-F07A-9CD75DEBF910}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBB63A8-6C60-4DF0-AAB0-F22A69DC66CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC01029C-53DA-43F1-BA1F-50A744BABABE}">
   <dimension ref="B2:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1134,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>87436</v>
+        <v>120000</v>
       </c>
       <c r="G16" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,10 +1157,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G17" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1180,10 +1180,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G18" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1203,10 +1203,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G19" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1226,10 +1226,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G20" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1249,10 +1249,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G21" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1272,10 +1272,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G22" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1295,10 +1295,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G23" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1318,10 +1318,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G24" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1341,10 +1341,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G25" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1364,10 +1364,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G26" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1387,10 +1387,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G27" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1410,10 +1410,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G28" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1433,10 +1433,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G29" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1456,10 +1456,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G30" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1479,10 +1479,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G31" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1502,10 +1502,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>124908</v>
+        <v>120000</v>
       </c>
       <c r="G32" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1528,7 +1528,7 @@
         <v>120000</v>
       </c>
       <c r="G33" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1551,7 +1551,7 @@
         <v>120000</v>
       </c>
       <c r="G34" s="18">
-        <v>3122700</v>
+        <v>3000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1562,16 +1562,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F35" s="18">
-        <v>84000</v>
+        <v>120000</v>
       </c>
       <c r="G35" s="18">
         <v>3000000</v>
@@ -1585,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>120000</v>
       </c>
       <c r="G36" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1608,13 +1608,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>120000</v>
@@ -1631,19 +1631,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
         <v>120000</v>
       </c>
       <c r="G38" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1654,13 +1654,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>120000</v>
@@ -1677,19 +1677,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G40" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1700,13 +1700,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
         <v>120000</v>
@@ -1723,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F42" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G42" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1746,13 +1746,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18">
         <v>120000</v>
@@ -1769,19 +1769,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G44" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1792,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F45" s="18">
         <v>120000</v>
@@ -1815,19 +1815,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G46" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1838,13 +1838,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
         <v>120000</v>
@@ -1861,19 +1861,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G48" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1884,13 +1884,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F49" s="18">
         <v>120000</v>
@@ -1907,19 +1907,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F50" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G50" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1930,13 +1930,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F51" s="18">
         <v>120000</v>
@@ -1953,19 +1953,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F52" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G52" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1976,13 +1976,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F53" s="18">
         <v>120000</v>
@@ -1999,19 +1999,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F54" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G54" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2022,13 +2022,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F55" s="18">
         <v>120000</v>
@@ -2045,19 +2045,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F56" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G56" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2068,13 +2068,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F57" s="18">
         <v>120000</v>
@@ -2091,19 +2091,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F58" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G58" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2114,13 +2114,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F59" s="18">
         <v>120000</v>
@@ -2137,19 +2137,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F60" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G60" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2160,13 +2160,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F61" s="18">
         <v>120000</v>
@@ -2183,19 +2183,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F62" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G62" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2206,13 +2206,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F63" s="18">
         <v>120000</v>
@@ -2229,19 +2229,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F64" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G64" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2252,13 +2252,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F65" s="18">
         <v>120000</v>
@@ -2275,19 +2275,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F66" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G66" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2298,13 +2298,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F67" s="18">
         <v>120000</v>
@@ -2321,19 +2321,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F68" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G68" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2344,13 +2344,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F69" s="18">
         <v>120000</v>
@@ -2367,19 +2367,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="18">
-        <v>120000</v>
+        <v>124908</v>
       </c>
       <c r="G70" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2390,13 +2390,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F71" s="18">
         <v>120000</v>
@@ -2413,19 +2413,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F72" s="18">
-        <v>120000</v>
+        <v>87436</v>
       </c>
       <c r="G72" s="18">
-        <v>3000000</v>
+        <v>3122700</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2436,16 +2436,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E73" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F73" s="24">
-        <v>120000</v>
+        <v>84000</v>
       </c>
       <c r="G73" s="24">
         <v>3000000</v>
